--- a/excel/HT17/T7HT17UroNefro.xlsx
+++ b/excel/HT17/T7HT17UroNefro.xlsx
@@ -1037,9 +1037,6 @@
     <t>Grp D2: Fallstart urologi*</t>
   </si>
   <si>
-    <t>Grupp Grp D1+Grp D2 Dietbehandling vid njursvikt</t>
-  </si>
-  <si>
     <t>Grp D1+Grp D2 Transplantation och etik</t>
   </si>
   <si>
@@ -1071,6 +1068,9 @@
   </si>
   <si>
     <t>Grp D1 Grp D2: Dialysundervisning*</t>
+  </si>
+  <si>
+    <t>Grp D1+Grp D2 Dietbehandling vid njursvikt</t>
   </si>
 </sst>
 </file>
@@ -2132,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3278,7 +3278,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="45">
       <c r="A93" s="17" t="s">
         <v>121</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="E95" s="58"/>
       <c r="F95" s="37"/>
     </row>
-    <row r="96" spans="1:6" ht="30">
+    <row r="96" spans="1:6" ht="45">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
         <v>23</v>
@@ -3360,7 +3360,7 @@
       <c r="E98" s="56"/>
       <c r="F98" s="57"/>
     </row>
-    <row r="99" spans="1:6" ht="30">
+    <row r="99" spans="1:6" ht="45">
       <c r="A99" s="8"/>
       <c r="B99" s="9" t="s">
         <v>23</v>
@@ -3374,7 +3374,7 @@
       <c r="E99" s="58"/>
       <c r="F99" s="37"/>
     </row>
-    <row r="100" spans="1:6" ht="31" thickBot="1">
+    <row r="100" spans="1:6" ht="46" thickBot="1">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
         <v>24</v>
@@ -3404,7 +3404,7 @@
       <c r="E101" s="56"/>
       <c r="F101" s="57"/>
     </row>
-    <row r="102" spans="1:6" ht="30">
+    <row r="102" spans="1:6" ht="45">
       <c r="A102" s="8"/>
       <c r="B102" s="9" t="s">
         <v>23</v>
@@ -3418,7 +3418,7 @@
       <c r="E102" s="58"/>
       <c r="F102" s="37"/>
     </row>
-    <row r="103" spans="1:6" ht="30">
+    <row r="103" spans="1:6" ht="45">
       <c r="A103" s="8"/>
       <c r="B103" s="9" t="s">
         <v>24</v>
@@ -3470,7 +3470,7 @@
       <c r="E106" s="56"/>
       <c r="F106" s="57"/>
     </row>
-    <row r="107" spans="1:6" ht="30">
+    <row r="107" spans="1:6" ht="45">
       <c r="A107" s="8"/>
       <c r="B107" s="9" t="s">
         <v>23</v>
@@ -3484,7 +3484,7 @@
       <c r="E107" s="58"/>
       <c r="F107" s="37"/>
     </row>
-    <row r="108" spans="1:6" ht="31" thickBot="1">
+    <row r="108" spans="1:6" ht="46" thickBot="1">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
         <v>24</v>
@@ -3498,7 +3498,7 @@
       <c r="E108" s="59"/>
       <c r="F108" s="38"/>
     </row>
-    <row r="109" spans="1:6" ht="30">
+    <row r="109" spans="1:6" ht="45">
       <c r="A109" s="17" t="s">
         <v>130</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="E109" s="60"/>
       <c r="F109" s="61"/>
     </row>
-    <row r="110" spans="1:6" ht="30">
+    <row r="110" spans="1:6" ht="45">
       <c r="A110" s="8"/>
       <c r="B110" s="11" t="s">
         <v>131</v>
@@ -3545,7 +3545,7 @@
       <c r="D112" s="2"/>
       <c r="E112" s="28"/>
     </row>
-    <row r="113" spans="1:5" ht="30">
+    <row r="113" spans="1:5" ht="45">
       <c r="A113" s="17" t="s">
         <v>134</v>
       </c>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E115" s="67"/>
     </row>
-    <row r="116" spans="1:5" ht="30">
+    <row r="116" spans="1:5" ht="45">
       <c r="A116" s="8"/>
       <c r="B116" s="9" t="s">
         <v>45</v>
@@ -3606,7 +3606,7 @@
       <c r="D117" s="30"/>
       <c r="E117" s="68"/>
     </row>
-    <row r="118" spans="1:5" ht="30">
+    <row r="118" spans="1:5" ht="45">
       <c r="A118" s="17" t="s">
         <v>136</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="E119" s="67"/>
     </row>
-    <row r="120" spans="1:5" ht="30">
+    <row r="120" spans="1:5" ht="45">
       <c r="A120" s="8"/>
       <c r="B120" s="9" t="s">
         <v>23</v>
@@ -3654,7 +3654,7 @@
       <c r="D121" s="31"/>
       <c r="E121" s="68"/>
     </row>
-    <row r="122" spans="1:5" ht="30">
+    <row r="122" spans="1:5" ht="45">
       <c r="A122" s="17" t="s">
         <v>137</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="E123" s="67"/>
     </row>
-    <row r="124" spans="1:5" ht="30">
+    <row r="124" spans="1:5" ht="45">
       <c r="A124" s="8"/>
       <c r="B124" s="9" t="s">
         <v>23</v>
@@ -3715,7 +3715,7 @@
       <c r="D126" s="32"/>
       <c r="E126" s="68"/>
     </row>
-    <row r="127" spans="1:5" ht="30">
+    <row r="127" spans="1:5" ht="45">
       <c r="A127" s="17" t="s">
         <v>138</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E128" s="67"/>
     </row>
-    <row r="129" spans="1:5" ht="30">
+    <row r="129" spans="1:5" ht="45">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
         <v>45</v>
@@ -3763,7 +3763,7 @@
       <c r="D130" s="30"/>
       <c r="E130" s="68"/>
     </row>
-    <row r="131" spans="1:5" ht="30">
+    <row r="131" spans="1:5" ht="45">
       <c r="A131" s="17" t="s">
         <v>139</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="D131" s="35"/>
       <c r="E131" s="66"/>
     </row>
-    <row r="132" spans="1:5" ht="31" thickBot="1">
+    <row r="132" spans="1:5" ht="46" thickBot="1">
       <c r="A132" s="8"/>
       <c r="B132" s="9" t="s">
         <v>58</v>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="1:5" ht="30">
+    <row r="179" spans="1:5" ht="45">
       <c r="A179" s="8"/>
       <c r="B179" s="9" t="s">
         <v>23</v>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="1:5" ht="31" thickBot="1">
+    <row r="180" spans="1:5" ht="46" thickBot="1">
       <c r="A180" s="3"/>
       <c r="B180" s="4" t="s">
         <v>24</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E181" s="17"/>
     </row>
-    <row r="182" spans="1:5" ht="30">
+    <row r="182" spans="1:5" ht="45">
       <c r="A182" s="8"/>
       <c r="B182" s="9" t="s">
         <v>23</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="1:5" ht="31" thickBot="1">
+    <row r="183" spans="1:5" ht="46" thickBot="1">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
         <v>24</v>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="E184" s="9"/>
     </row>
-    <row r="185" spans="1:5" ht="30">
+    <row r="185" spans="1:5" ht="45">
       <c r="A185" s="8"/>
       <c r="B185" s="9" t="s">
         <v>23</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="E185" s="9"/>
     </row>
-    <row r="186" spans="1:5" ht="30">
+    <row r="186" spans="1:5" ht="45">
       <c r="A186" s="8"/>
       <c r="B186" s="9" t="s">
         <v>24</v>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E189" s="17"/>
     </row>
-    <row r="190" spans="1:5" ht="30">
+    <row r="190" spans="1:5" ht="45">
       <c r="A190" s="8"/>
       <c r="B190" s="9" t="s">
         <v>23</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="1:5" ht="31" thickBot="1">
+    <row r="191" spans="1:5" ht="46" thickBot="1">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
         <v>24</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" ht="30">
+    <row r="192" spans="1:5" ht="45">
       <c r="A192" s="17" t="s">
         <v>163</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="E192" s="17"/>
     </row>
-    <row r="193" spans="1:5" ht="31" thickBot="1">
+    <row r="193" spans="1:5" ht="46" thickBot="1">
       <c r="A193" s="3"/>
       <c r="B193" s="4" t="s">
         <v>40</v>
@@ -4517,7 +4517,7 @@
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" ht="30">
+    <row r="195" spans="1:5" ht="45">
       <c r="A195" s="17" t="s">
         <v>164</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="E197" s="8"/>
     </row>
-    <row r="198" spans="1:5" ht="30">
+    <row r="198" spans="1:5" ht="45">
       <c r="A198" s="8"/>
       <c r="B198" s="9" t="s">
         <v>45</v>
@@ -4576,7 +4576,7 @@
       <c r="D199" s="10"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" ht="30">
+    <row r="200" spans="1:5" ht="45">
       <c r="A200" s="17" t="s">
         <v>165</v>
       </c>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E201" s="8"/>
     </row>
-    <row r="202" spans="1:5" ht="30">
+    <row r="202" spans="1:5" ht="45">
       <c r="A202" s="8"/>
       <c r="B202" s="9" t="s">
         <v>23</v>
@@ -4622,7 +4622,7 @@
       <c r="D203" s="10"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" ht="30">
+    <row r="204" spans="1:5" ht="45">
       <c r="A204" s="17" t="s">
         <v>166</v>
       </c>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E205" s="9"/>
     </row>
-    <row r="206" spans="1:5" ht="30">
+    <row r="206" spans="1:5" ht="45">
       <c r="A206" s="8"/>
       <c r="B206" s="9" t="s">
         <v>23</v>
@@ -4683,7 +4683,7 @@
       <c r="D208" s="10"/>
       <c r="E208" s="10"/>
     </row>
-    <row r="209" spans="1:5" ht="30">
+    <row r="209" spans="1:5" ht="45">
       <c r="A209" s="17" t="s">
         <v>167</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E210" s="8"/>
     </row>
-    <row r="211" spans="1:5" ht="30">
+    <row r="211" spans="1:5" ht="45">
       <c r="A211" s="8"/>
       <c r="B211" s="9" t="s">
         <v>23</v>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="1:5" ht="30">
+    <row r="266" spans="1:5" ht="45">
       <c r="A266" s="8"/>
       <c r="B266" s="11" t="s">
         <v>187</v>
@@ -5331,13 +5331,13 @@
       </c>
       <c r="E266" s="8"/>
     </row>
-    <row r="267" spans="1:5" ht="30">
+    <row r="267" spans="1:5" ht="45">
       <c r="A267" s="8"/>
       <c r="B267" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="8"/>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="E270" s="17"/>
     </row>
-    <row r="271" spans="1:5" ht="30">
+    <row r="271" spans="1:5" ht="45">
       <c r="A271" s="8"/>
       <c r="B271" s="9" t="s">
         <v>23</v>
@@ -5384,13 +5384,13 @@
       </c>
       <c r="E271" s="8"/>
     </row>
-    <row r="272" spans="1:5" ht="31" thickBot="1">
+    <row r="272" spans="1:5" ht="46" thickBot="1">
       <c r="A272" s="24"/>
       <c r="B272" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C272" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D272" s="34" t="s">
         <v>28</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="E273" s="29"/>
     </row>
-    <row r="274" spans="1:5" ht="30">
+    <row r="274" spans="1:5" ht="45">
       <c r="A274" s="47"/>
       <c r="B274" s="49" t="s">
         <v>45</v>
@@ -5425,13 +5425,13 @@
       </c>
       <c r="E274" s="29"/>
     </row>
-    <row r="275" spans="1:5" ht="30">
+    <row r="275" spans="1:5" ht="45">
       <c r="A275" s="47"/>
       <c r="B275" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C275" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D275" s="29" t="s">
         <v>191</v>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="E280" s="76"/>
     </row>
-    <row r="281" spans="1:5" ht="30">
+    <row r="281" spans="1:5" ht="45">
       <c r="A281" s="47"/>
       <c r="B281" s="29" t="s">
         <v>187</v>
@@ -5514,7 +5514,7 @@
       <c r="D283" s="44"/>
       <c r="E283" s="44"/>
     </row>
-    <row r="284" spans="1:5" ht="30">
+    <row r="284" spans="1:5" ht="45">
       <c r="A284" s="76" t="s">
         <v>195</v>
       </c>
@@ -5529,13 +5529,13 @@
       </c>
       <c r="E284" s="76"/>
     </row>
-    <row r="285" spans="1:5" ht="31" thickBot="1">
+    <row r="285" spans="1:5" ht="46" thickBot="1">
       <c r="A285" s="44"/>
       <c r="B285" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C285" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D285" s="45" t="s">
         <v>198</v>
@@ -5551,7 +5551,7 @@
       <c r="D286" s="51"/>
       <c r="E286" s="51"/>
     </row>
-    <row r="287" spans="1:5" ht="30">
+    <row r="287" spans="1:5" ht="45">
       <c r="A287" s="17" t="s">
         <v>199</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>43</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>47</v>
@@ -5585,7 +5585,7 @@
         <v>135</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>26</v>
@@ -5598,20 +5598,20 @@
         <v>200</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E290" s="8"/>
     </row>
-    <row r="291" spans="1:5" ht="30">
+    <row r="291" spans="1:5" ht="45">
       <c r="A291" s="8"/>
       <c r="B291" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>48</v>
@@ -5625,7 +5625,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" ht="30">
+    <row r="293" spans="1:5" ht="45">
       <c r="A293" s="17" t="s">
         <v>201</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>202</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>26</v>
@@ -5659,20 +5659,20 @@
         <v>63</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E295" s="8"/>
     </row>
-    <row r="296" spans="1:5" ht="30">
+    <row r="296" spans="1:5" ht="45">
       <c r="A296" s="8"/>
       <c r="B296" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>27</v>
@@ -5686,7 +5686,7 @@
       <c r="D297" s="4"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5" ht="30">
+    <row r="298" spans="1:5" ht="45">
       <c r="A298" s="17" t="s">
         <v>203</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>204</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>13</v>
@@ -5733,7 +5733,7 @@
         <v>30</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>206</v>
@@ -5742,13 +5742,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="30">
+    <row r="302" spans="1:5" ht="45">
       <c r="A302" s="8"/>
       <c r="B302" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D302" s="15" t="s">
         <v>27</v>
@@ -5825,20 +5825,20 @@
         <v>215</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D309" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="1:5" ht="30">
+    <row r="310" spans="1:5" ht="45">
       <c r="A310" s="8"/>
       <c r="B310" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>27</v>
@@ -5861,7 +5861,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5" ht="30">
+    <row r="313" spans="1:5" ht="45">
       <c r="A313" s="17" t="s">
         <v>208</v>
       </c>
@@ -5882,20 +5882,20 @@
         <v>209</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E314" s="8"/>
     </row>
-    <row r="315" spans="1:5" ht="30">
+    <row r="315" spans="1:5" ht="45">
       <c r="A315" s="8"/>
       <c r="B315" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D315" s="9" t="s">
         <v>206</v>
@@ -5915,7 +5915,7 @@
         <v>211</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D317" s="9" t="s">
         <v>206</v>
